--- a/biology/Histoire de la zoologie et de la botanique/Johannes_Michael_Friedrich_Adams/Johannes_Michael_Friedrich_Adams.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johannes_Michael_Friedrich_Adams/Johannes_Michael_Friedrich_Adams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Michael Friedrich Adams, né en 1780 et mort en 1832, est un botaniste allemand au service de l'Empire russe.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études médicales de 1795 à 1796 à Saint-Pétersbourg. Entre 1800 et 1802, il voyage à travers le Caucase dans l'entourage du comte Moussine-Pouchkine (1760-1805). Ensuite, il dirige une expédition pour le comte Golovkine en Chine où il s'occupe de zoologie, mais cette expédition échoue. Il part ensuite pour Iakoutsk en Sibérie. En 1805-1806, il voyage le long du fleuve Léna afin de découvrir une dépouille de mammouth.
 À la fin de sa vie, il devient professeur-assistant de botanique à l'académie de médecine et de chirurgie de Moscou.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Decades quinque novarum specierum plantarum, Tiflis, 10 novembre 1802
 </t>
